--- a/citgo_locations_by_state.xlsx
+++ b/citgo_locations_by_state.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2022\EV Chargers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58C0E95-3001-4644-B85B-BF06ADD280B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B417C7-C692-4C06-8F29-CBCAC7F86DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8F145840-AAFC-4D22-AEC1-BACEAEC34544}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{8F145840-AAFC-4D22-AEC1-BACEAEC34544}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="citgo" sheetId="3" r:id="rId2"/>
-    <sheet name="Abbreviations" sheetId="2" r:id="rId3"/>
+    <sheet name="Abbreviations" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -797,7 +797,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="A1:C31"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
